--- a/docs/프로그램 목록 v0.3.xlsx
+++ b/docs/프로그램 목록 v0.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="36" windowWidth="16152" windowHeight="9636" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="36" windowWidth="16152" windowHeight="9636" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="공통" sheetId="3" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="상품관리" sheetId="2" r:id="rId3"/>
     <sheet name="주문관리" sheetId="4" r:id="rId4"/>
     <sheet name="장바구니" sheetId="5" r:id="rId5"/>
+    <sheet name="게시판" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1020,7 +1021,7 @@
   <dimension ref="A2:H23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2047,8 +2048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2642,7 +2643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -2933,4 +2934,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/프로그램 목록 v0.3.xlsx
+++ b/docs/프로그램 목록 v0.3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="152">
   <si>
     <t>회원관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -571,6 +571,22 @@
   </si>
   <si>
     <t>박영훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_manager_form.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동휘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2046,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H12"/>
+  <dimension ref="A2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2261,24 +2277,22 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="6"/>
       <c r="C10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>148</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>63</v>
@@ -2286,14 +2300,14 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -2310,14 +2324,14 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
@@ -2332,9 +2346,33 @@
         <v>63</v>
       </c>
     </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B3:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
